--- a/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Clase-trans_dic.xlsx
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003988870244046386</v>
+        <v>0.00386382368521136</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02094735035800784</v>
+        <v>0.02193689394217673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007834334169998722</v>
+        <v>0.007472926047204224</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003732489194589917</v>
+        <v>0.003724261810408999</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003114897858525002</v>
+        <v>0.003101804213946063</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.004719891085293618</v>
+        <v>0.004968861375654139</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01551835438556342</v>
+        <v>0.01523898694785974</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004323610986201442</v>
+        <v>0.004712062148624356</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02221933836762716</v>
+        <v>0.02326606210526051</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06792262288097915</v>
+        <v>0.06682466768535254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03489391245095326</v>
+        <v>0.0366680189172085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03194325772724331</v>
+        <v>0.03169720897567738</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02647359051964499</v>
+        <v>0.0259259063649968</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01938001251341126</v>
+        <v>0.0214850061015782</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04598360354486975</v>
+        <v>0.04327334324412374</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0191883630866286</v>
+        <v>0.02065682324327595</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01023112285268912</v>
+        <v>0.01059403573054115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002127630548350414</v>
+        <v>0.002145839863606426</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005476901142668367</v>
+        <v>0.005504472648874439</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00524309413596625</v>
+        <v>0.003391740007837476</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01153561418420081</v>
+        <v>0.01046834462610777</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004848499224583679</v>
+        <v>0.004909460061680513</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001156327655564793</v>
+        <v>0.001159242276593221</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0442085563722178</v>
+        <v>0.0434633086940758</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02563142068332228</v>
+        <v>0.02728498451650128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01503426585621867</v>
+        <v>0.01272040715986929</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03135852847919358</v>
+        <v>0.03133023086275869</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03938691912902993</v>
+        <v>0.0380532737191023</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01775449984420747</v>
+        <v>0.01640033609267077</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03343749263468151</v>
+        <v>0.03042154758212443</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02365621382137871</v>
+        <v>0.02318147514859772</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009872825084878056</v>
+        <v>0.01041421617729621</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0133312919573942</v>
+        <v>0.01240997559044488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01185584060490025</v>
+        <v>0.01066013948147775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005546566907492638</v>
+        <v>0.00548929036751729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006125017385359231</v>
+        <v>0.006056399393022658</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003656854942325088</v>
+        <v>0.003624481583103989</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01398747909358675</v>
+        <v>0.01472473963368068</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01082209164684366</v>
+        <v>0.01126859446916624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005651495562924036</v>
+        <v>0.005797316586806842</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04027845266882632</v>
+        <v>0.04002146186060967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0336311355288112</v>
+        <v>0.03406244713791483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02795184074937277</v>
+        <v>0.02795076400012264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05706893806908723</v>
+        <v>0.05713752332212402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03519799905295092</v>
+        <v>0.03689337149489277</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03851687144506617</v>
+        <v>0.04180346061980768</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03764618389151847</v>
+        <v>0.03849792159682244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0293610987477273</v>
+        <v>0.02848134463131829</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02544718460224202</v>
+        <v>0.02674685465206124</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0132399427934216</v>
+        <v>0.01335767254889523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01959458223445276</v>
+        <v>0.02048132319773133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01187247915592962</v>
+        <v>0.01126165413801707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009437045756303336</v>
+        <v>0.009536015362097132</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0155610453318862</v>
+        <v>0.01536636958933999</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00880521086626228</v>
+        <v>0.008879954225831694</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01324631014406816</v>
+        <v>0.01341591218408582</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02153917708387439</v>
+        <v>0.02072021823301885</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01200807180130369</v>
+        <v>0.01208726113767091</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03002262506531164</v>
+        <v>0.02910288276622447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04046502388059325</v>
+        <v>0.04369394088715217</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02942998961911057</v>
+        <v>0.02771675551930114</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03174837188083358</v>
+        <v>0.03283781828172296</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04133085930465934</v>
+        <v>0.04178301882831902</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02674796195298495</v>
+        <v>0.02748596007364491</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02676235966114963</v>
+        <v>0.02633370347809869</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03796834554683442</v>
+        <v>0.0378207114481693</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02427098348407286</v>
+        <v>0.02535400634254183</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01912832417883777</v>
+        <v>0.02107364283777273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01455889354767081</v>
+        <v>0.0139934520100057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01801575070230111</v>
+        <v>0.0170524547415772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007928475528342773</v>
+        <v>0.00772097677364605</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002634125094998672</v>
+        <v>0.002678404591956681</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002496927285203164</v>
+        <v>0.002523726408580095</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01558129311555168</v>
+        <v>0.01545825964909702</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008665872447179835</v>
+        <v>0.009088697780704957</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01113855615082199</v>
+        <v>0.01120175489557672</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06012979174587724</v>
+        <v>0.06106950221425735</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04781561876558005</v>
+        <v>0.04635323566603122</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04937969154890237</v>
+        <v>0.04741607317415802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03019930835278097</v>
+        <v>0.03058180962857691</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01485798794017981</v>
+        <v>0.01592055368883437</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01551905784214066</v>
+        <v>0.01518875801247534</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03701054840974043</v>
+        <v>0.03595951894367208</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02335289275296186</v>
+        <v>0.02379753554622412</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02670255397930633</v>
+        <v>0.02605048651179565</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003000183935214011</v>
+        <v>0.00305417418943945</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01075973936939072</v>
+        <v>0.01101424987103951</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01421427809667524</v>
+        <v>0.01688333330047041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00847377735380247</v>
+        <v>0.008957427684324093</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01432695251320487</v>
+        <v>0.01377464934899278</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006056230997605555</v>
+        <v>0.00650440861124011</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008233784416415545</v>
+        <v>0.008216860964757747</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01543315014039223</v>
+        <v>0.01568392895542083</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009801593138114129</v>
+        <v>0.01000639044698923</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02570021026961743</v>
+        <v>0.02385450424329</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05344973096608842</v>
+        <v>0.05408359902254192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05669646538335613</v>
+        <v>0.05741413113218215</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02110624658600337</v>
+        <v>0.02253866135823073</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03212175745293423</v>
+        <v>0.03158056060281058</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02036799139771186</v>
+        <v>0.01970385065687529</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02048735853436416</v>
+        <v>0.01975254760803539</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03213683159592587</v>
+        <v>0.03325598877040566</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0227828639903677</v>
+        <v>0.02353320996392213</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01631160232169407</v>
+        <v>0.016817394692803</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02070896119790983</v>
+        <v>0.02021899364334061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01482708407611062</v>
+        <v>0.01442564657524652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01187718427695356</v>
+        <v>0.01165925639973255</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01229571354240192</v>
+        <v>0.01309289971227335</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007033746486475948</v>
+        <v>0.007168466341522956</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01486642080677031</v>
+        <v>0.01511116087947242</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01806909990017984</v>
+        <v>0.01782935394211937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01152650188983418</v>
+        <v>0.01175080230185464</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02618283512065504</v>
+        <v>0.02645613245491662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03263067473837285</v>
+        <v>0.03260262179723009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02490212714575761</v>
+        <v>0.02483070123408207</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02036696221923196</v>
+        <v>0.02068859123302715</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02198535992758979</v>
+        <v>0.02257687083198118</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01368889147933426</v>
+        <v>0.01348542997578964</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02125573564889797</v>
+        <v>0.02170371977045509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02550050042026591</v>
+        <v>0.02573267473369404</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01784642949834076</v>
+        <v>0.01753626328397366</v>
       </c>
     </row>
     <row r="25">
@@ -1615,29 +1615,29 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1886</v>
+        <v>1827</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9158</v>
+        <v>9591</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3362</v>
+        <v>3207</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>3679</v>
+        <v>3874</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11647</v>
+        <v>11437</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3356</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="7">
@@ -1648,29 +1648,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10507</v>
+        <v>11002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29697</v>
+        <v>29216</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14973</v>
+        <v>15734</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9796</v>
+        <v>9721</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8294</v>
+        <v>8122</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>15108</v>
+        <v>16749</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34511</v>
+        <v>32477</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14893</v>
+        <v>16033</v>
       </c>
     </row>
     <row r="8">
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3736</v>
+        <v>3869</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1772</v>
+        <v>1146</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8490</v>
+        <v>7704</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3660</v>
+        <v>3706</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16143</v>
+        <v>15871</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10682</v>
+        <v>11372</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5671</v>
+        <v>4798</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11627</v>
+        <v>11617</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13313</v>
+        <v>12862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6590</v>
+        <v>6087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24609</v>
+        <v>22389</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17855</v>
+        <v>17497</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7389</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7204</v>
+        <v>6706</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7440</v>
+        <v>6690</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2889</v>
+        <v>2859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9905</v>
+        <v>10427</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9606</v>
+        <v>10003</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3882</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21765</v>
+        <v>21627</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21105</v>
+        <v>21376</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14558</v>
+        <v>14557</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9575</v>
+        <v>9587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9156</v>
+        <v>9597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6399</v>
+        <v>6945</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26659</v>
+        <v>27262</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26063</v>
+        <v>25282</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17481</v>
+        <v>18373</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16368</v>
+        <v>16514</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22689</v>
+        <v>23716</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13636</v>
+        <v>12935</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6732</v>
+        <v>6802</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11899</v>
+        <v>11750</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7272</v>
+        <v>7334</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>25825</v>
+        <v>26156</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>41411</v>
+        <v>39837</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23709</v>
+        <v>23865</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37117</v>
+        <v>35980</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46855</v>
+        <v>50594</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33802</v>
+        <v>31834</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22646</v>
+        <v>23424</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31604</v>
+        <v>31950</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22090</v>
+        <v>22700</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52176</v>
+        <v>51340</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72998</v>
+        <v>72714</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47921</v>
+        <v>50060</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6706</v>
+        <v>7387</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7420</v>
+        <v>7132</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11150</v>
+        <v>10554</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4494</v>
+        <v>4376</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1998</v>
+        <v>2032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1843</v>
+        <v>1863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14293</v>
+        <v>14180</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10990</v>
+        <v>11527</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15117</v>
+        <v>15203</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21079</v>
+        <v>21408</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24371</v>
+        <v>23625</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30562</v>
+        <v>29347</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17116</v>
+        <v>17333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11271</v>
+        <v>12077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11457</v>
+        <v>11213</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33951</v>
+        <v>32987</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29617</v>
+        <v>30181</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36240</v>
+        <v>35355</v>
       </c>
     </row>
     <row r="24">
@@ -2331,31 +2331,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2872</v>
+        <v>2940</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4082</v>
+        <v>4848</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10582</v>
+        <v>11186</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15894</v>
+        <v>15281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6540</v>
+        <v>7024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12737</v>
+        <v>12711</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21240</v>
+        <v>21585</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>13399</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="27">
@@ -2366,31 +2366,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7664</v>
+        <v>7113</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14265</v>
+        <v>14434</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16280</v>
+        <v>16486</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26357</v>
+        <v>28145</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35634</v>
+        <v>35034</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21995</v>
+        <v>21278</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31693</v>
+        <v>30556</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>44228</v>
+        <v>45768</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>31145</v>
+        <v>32171</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>53232</v>
+        <v>54883</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>70742</v>
+        <v>69068</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>50142</v>
+        <v>48784</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>40075</v>
+        <v>39340</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>43576</v>
+        <v>46401</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24817</v>
+        <v>25293</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>98677</v>
+        <v>100301</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>125761</v>
+        <v>124092</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>79649</v>
+        <v>81199</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>85447</v>
+        <v>86339</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>111467</v>
+        <v>111371</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>84213</v>
+        <v>83971</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68720</v>
+        <v>69805</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>77916</v>
+        <v>80012</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>48299</v>
+        <v>47581</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>141086</v>
+        <v>144060</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>177484</v>
+        <v>179100</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>123321</v>
+        <v>121177</v>
       </c>
     </row>
     <row r="32">
